--- a/data/trans_dic/P36B13_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Habitat-trans_dic.xlsx
@@ -612,7 +612,7 @@
         <v>0.1341348121191296</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.05039251176583034</v>
+        <v>0.05039251176583035</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.09278850090351337</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1098167753077618</v>
+        <v>0.1084038315420476</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03261894621746194</v>
+        <v>0.033017463124681</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07311148185125758</v>
+        <v>0.07260636097782758</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0226043189876528</v>
+        <v>0.02376812286872909</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.09640516377468872</v>
+        <v>0.09759300875716656</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03215438263793478</v>
+        <v>0.03078040981489406</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1628927072414877</v>
+        <v>0.1589727252948323</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07391245185492497</v>
+        <v>0.07226807682407217</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1156301310688119</v>
+        <v>0.112827114043554</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04707516565546507</v>
+        <v>0.04808113358738821</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1308761700532108</v>
+        <v>0.1328317105405705</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05508943400775686</v>
+        <v>0.05548926833175458</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         <v>0.1258995775727987</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.07175357716921497</v>
+        <v>0.071753577169215</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.08459720538605936</v>
@@ -706,7 +706,7 @@
         <v>0.1050116836251879</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.05059784749382461</v>
+        <v>0.0505978474938246</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1064411150653134</v>
+        <v>0.1061622719885949</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05349892017857772</v>
+        <v>0.05349596490134848</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06810359644388084</v>
+        <v>0.06843980445798099</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02082535265652556</v>
+        <v>0.02151013992596856</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.09236151334471554</v>
+        <v>0.09208621523695887</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03929306312796537</v>
+        <v>0.04004700800449463</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1491617005961495</v>
+        <v>0.1475832658480845</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09500490033841075</v>
+        <v>0.09542751183672214</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1029644084732919</v>
+        <v>0.1031024374976389</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04257581534219752</v>
+        <v>0.04070884388537879</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1196489707655507</v>
+        <v>0.1194166362580927</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06178257292843177</v>
+        <v>0.06287339489844271</v>
       </c>
     </row>
     <row r="10">
@@ -782,13 +782,13 @@
         <v>0.0710519099625166</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.03770864632410463</v>
+        <v>0.03770864632410464</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1005910904882319</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.05588204713810616</v>
+        <v>0.05588204713810618</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1069259693333866</v>
+        <v>0.1056330841883547</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05334355374291413</v>
+        <v>0.05317130591602173</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0531693565497653</v>
+        <v>0.05429070762227551</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02542474289152922</v>
+        <v>0.02518060018686523</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08626552740075384</v>
+        <v>0.08587616485155151</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04342857631124984</v>
+        <v>0.04322405046061086</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1609930573910088</v>
+        <v>0.1554556657866156</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1008687063000657</v>
+        <v>0.1012984836376525</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09014225932654771</v>
+        <v>0.09199378880874406</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05687384423497871</v>
+        <v>0.05632964534422649</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1162388870907717</v>
+        <v>0.1171753012035266</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0711838900628689</v>
+        <v>0.07126612032760804</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.1094087943890098</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.09529375793927143</v>
+        <v>0.09529375793927142</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.06867032767142363</v>
@@ -870,7 +870,7 @@
         <v>0.08796495997541405</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.07201825177239242</v>
+        <v>0.07201825177239243</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.09086158435037602</v>
+        <v>0.09009038606580573</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07631284456200911</v>
+        <v>0.07332049911406223</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05367443006777768</v>
+        <v>0.05461277555482601</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03964623145822714</v>
+        <v>0.03958800399479211</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07543297909557542</v>
+        <v>0.07513029345408315</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06019575983187023</v>
+        <v>0.06032444403102188</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1289116936853924</v>
+        <v>0.1296070021538034</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1194558659492862</v>
+        <v>0.1191338389150787</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08561337395997873</v>
+        <v>0.08497736339890577</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.06631946010195164</v>
+        <v>0.06769984072431728</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1015675723380689</v>
+        <v>0.1011688868043646</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08523512784503924</v>
+        <v>0.08645898326006962</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         <v>0.1008336839739633</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.05626410501267202</v>
+        <v>0.05626410501267201</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1139221344040904</v>
+        <v>0.1128025675194444</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.06521636856187842</v>
+        <v>0.06365324646364223</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07054665941004624</v>
+        <v>0.07054893871464281</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03289880444564754</v>
+        <v>0.03291259571586524</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.09399777843838782</v>
+        <v>0.09334744705178009</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05021039361473768</v>
+        <v>0.0499498918271697</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1365019393090566</v>
+        <v>0.1359031338868905</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08625461911091466</v>
+        <v>0.08657466552482941</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08764291647142873</v>
+        <v>0.08787261539516761</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0458258849606225</v>
+        <v>0.0455356586709189</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1085725741294691</v>
+        <v>0.108144241672606</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06329142376869849</v>
+        <v>0.06236735809112513</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>73680</v>
+        <v>72732</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>22456</v>
+        <v>22730</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>48662</v>
+        <v>48325</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>16509</v>
+        <v>17359</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>128847</v>
+        <v>130435</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>45620</v>
+        <v>43671</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>109291</v>
+        <v>106661</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>50883</v>
+        <v>49751</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>76961</v>
+        <v>75095</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>34382</v>
+        <v>35117</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>174918</v>
+        <v>177532</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>78161</v>
+        <v>78728</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>108353</v>
+        <v>108069</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>56070</v>
+        <v>56067</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>70935</v>
+        <v>71285</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>22264</v>
+        <v>22996</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>190222</v>
+        <v>189655</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>83188</v>
+        <v>84784</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>151841</v>
+        <v>150234</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>99570</v>
+        <v>100013</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>107245</v>
+        <v>107389</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>45516</v>
+        <v>43521</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>246421</v>
+        <v>245943</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>130801</v>
+        <v>133111</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>80909</v>
+        <v>79930</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>42839</v>
+        <v>42700</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>41601</v>
+        <v>42478</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>20634</v>
+        <v>20436</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>132771</v>
+        <v>132172</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>70122</v>
+        <v>69792</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>121820</v>
+        <v>117630</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>81005</v>
+        <v>81350</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>70529</v>
+        <v>71978</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>46157</v>
+        <v>45716</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>178903</v>
+        <v>180344</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>114937</v>
+        <v>115070</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>84336</v>
+        <v>83621</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>75483</v>
+        <v>72523</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>55369</v>
+        <v>56337</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>44188</v>
+        <v>44123</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>147830</v>
+        <v>147237</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>126632</v>
+        <v>126903</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>119654</v>
+        <v>120299</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>118157</v>
+        <v>117838</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>88317</v>
+        <v>87660</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>73916</v>
+        <v>75455</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>199048</v>
+        <v>198267</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>179307</v>
+        <v>181882</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>384347</v>
+        <v>380569</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>230128</v>
+        <v>224612</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>248405</v>
+        <v>248413</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>122566</v>
+        <v>122618</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>648106</v>
+        <v>643622</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>364238</v>
+        <v>362349</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>460525</v>
+        <v>458505</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>304365</v>
+        <v>305494</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>308604</v>
+        <v>309412</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>170727</v>
+        <v>169646</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>748598</v>
+        <v>745645</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>459131</v>
+        <v>452428</v>
       </c>
     </row>
     <row r="24">
